--- a/Localization/Localization.xlsx
+++ b/Localization/Localization.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636FEA22-F6C2-4C4D-9E81-69BF2EE4963D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +52,10 @@
     <t>Text is free of grammatical mistakes</t>
   </si>
   <si>
-    <t>Text is properly transleted</t>
-  </si>
-  <si>
     <t>Text is free of character corruption</t>
   </si>
   <si>
     <t>Localization images are good quality</t>
-  </si>
-  <si>
-    <t>Appereance/Layout</t>
   </si>
   <si>
     <t>Layout is consistent with the source/English version</t>
@@ -355,6 +348,37 @@
     <t>3 (2).png</t>
   </si>
   <si>
+    <t>5 (2).png</t>
+  </si>
+  <si>
+    <t>The confirmation button in the "Change location and language" menu is not translated
+Created: 04/10/18</t>
+  </si>
+  <si>
+    <t>The "Go" button in the filter is not translated
+Created: 04/10/18</t>
+  </si>
+  <si>
+    <t>The website does not change "My Account" label after changing language
+Created: 1/10/18</t>
+  </si>
+  <si>
+    <t>The website does not change some menu items after changing language
+Created: 04/10/18</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Bike Trailers</t>
+  </si>
+  <si>
+    <t>Kids Bikes</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -425,11 +449,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The confirm button is not transleted. "Update" is displayed.</t>
-    </r>
-  </si>
-  <si>
-    <t>5 (2).png</t>
+      <t>The confirm button is not translated. "Update" is displayed.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -505,42 +526,20 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The confirm button is not transleted. "Go" is displayed.</t>
-    </r>
-  </si>
-  <si>
-    <t>The confirmation button in the "Change location and language" menu is not translated
-Created: 04/10/18</t>
-  </si>
-  <si>
-    <t>The "Go" button in the filter is not translated
-Created: 04/10/18</t>
-  </si>
-  <si>
-    <t>The website does not change "My Account" label after changing language
-Created: 1/10/18</t>
-  </si>
-  <si>
-    <t>The website does not change some menu items after changing language
-Created: 04/10/18</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Bike Trailers</t>
-  </si>
-  <si>
-    <t>Kids Bikes</t>
-  </si>
-  <si>
-    <t>Fail</t>
+      <t>The confirm button is not translated. "Go" is displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Text is properly translated</t>
+  </si>
+  <si>
+    <t>Appearance/Layout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,61 +856,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1193,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,32 +1209,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>52</v>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1244,14 +1243,14 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>50</v>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,14 +1260,14 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>50</v>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,14 +1277,14 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>50</v>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,14 +1294,14 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>50</v>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,14 +1311,14 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>50</v>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,26 +1328,26 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>50</v>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1357,14 +1356,14 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>50</v>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,14 +1373,14 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>53</v>
+      <c r="C11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1389,16 +1388,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,16 +1405,16 @@
         <v>2.4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,16 +1422,16 @@
         <v>2.5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,16 +1439,16 @@
         <v>2.6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,16 +1456,16 @@
         <v>2.7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,44 +1473,44 @@
         <v>2.8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3.1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,16 +1518,16 @@
         <v>3.2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,16 +1535,16 @@
         <v>3.3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,16 +1552,16 @@
         <v>3.4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,16 +1569,16 @@
         <v>3.5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,16 +1586,16 @@
         <v>3.6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1611,11 +1610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FBD3E0-8AA8-472E-9581-7CD40E330CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D40" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,388 +1626,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="18">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="19" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="22" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>4</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4" t="s">
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="45" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="A10:A18"/>
@@ -2023,30 +2036,16 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{DEFA9028-404C-436A-A2A5-DC9B505C8EF4}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{C42785A5-5962-424E-ABD6-109A86E33EB5}"/>
-    <hyperlink ref="C14" r:id="rId3" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{1E7E61EC-5152-428B-85B3-9AC3B35A32D0}"/>
-    <hyperlink ref="C23" r:id="rId4" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{939887B4-C332-4535-A5AF-C842BCB5416C}"/>
-    <hyperlink ref="C32" r:id="rId5" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{65DA0BC4-D1C2-4F33-9A1E-96D21B4936D5}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{711A1A71-348C-40C6-9D79-B27BFADE724F}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{DBC5ABEB-B8DB-46A1-BED9-67A803252BEF}"/>
-    <hyperlink ref="E32" r:id="rId8" xr:uid="{CED8912A-BAC2-4982-87C3-E6F25B6A6E87}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
+    <hyperlink ref="C23" r:id="rId4" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
+    <hyperlink ref="C32" r:id="rId5" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
+    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E32" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/Localization/Localization.xlsx
+++ b/Localization/Localization.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35AF96-2A53-4A26-9478-8200DC115F1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -216,82 +222,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1.	Open the website http://www.chainreactioncycles.com/ua/ru
-2.	Change Country on the "Япония", and Language on the "日本語"
-3.	Click on the "Обновить" button.
-4.	Point on the menu items.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expected result: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All of the menu items should be on the Japanese language.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Actual result: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Some of the menu items is not change language to Japanese</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps to reproduce:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 1. Open the website http://www.chainreactioncycles.com/jp/ja/
 2. Look on the "My Account" label in the top of the site
 </t>
@@ -363,10 +293,6 @@
 Created: 1/10/18</t>
   </si>
   <si>
-    <t>The website does not change some menu items after changing language
-Created: 04/10/18</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -377,6 +303,12 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Text is properly translated</t>
+  </si>
+  <si>
+    <t>Appearance/Layout</t>
   </si>
   <si>
     <r>
@@ -425,7 +357,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The confirm button should be "更新"</t>
+      <t>The confirm button should be "更新" (Update)</t>
     </r>
     <r>
       <rPr>
@@ -475,9 +407,9 @@
       </rPr>
       <t xml:space="preserve">
 1. Open the website http://www.chainreactioncycles.com/jp/ja/
-2. Select "全カテゴリー"
-3. Select "バイク"
-4. Click on the "バイクトレーラー" label.
+2. Select "全カテゴリー" (All categories)
+3. Select "バイク" (bike)
+4. Click on the "バイクトレーラー" label. (Bike Trailer)
 5. Pay attention on the "Go" label
 </t>
     </r>
@@ -502,7 +434,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The confirm button should be "行く"</t>
+      <t>The confirm button should be "行く" (GO)</t>
     </r>
     <r>
       <rPr>
@@ -530,16 +462,90 @@
     </r>
   </si>
   <si>
-    <t>Text is properly translated</t>
-  </si>
-  <si>
-    <t>Appearance/Layout</t>
+    <t>The website does not change menu items after changing language
+Created: 04/10/18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.	Open the website http://www.chainreactioncycles.com/ua/ru
+2.	Change Country on the "Япония", and Language on the "日本語" (Japanese)
+3.	Click on the "Обновить" (Update) button.
+4.	Point on the menu items.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All of the menu items should be on the Japanese language.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Actual result: T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he menu items do not change language to Japanese</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -850,9 +856,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,6 +866,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1192,11 +1201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,32 +1218,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>48</v>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1243,14 +1252,14 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,14 +1269,14 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,14 +1286,14 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1294,31 +1303,31 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,26 +1337,26 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1356,14 +1365,14 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,14 +1382,14 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>49</v>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,16 +1397,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,14 +1416,14 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,16 +1431,16 @@
         <v>2.5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,14 +1450,14 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1458,14 +1467,14 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>49</v>
+      <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,26 +1484,26 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>49</v>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1503,14 +1512,14 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>46</v>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,14 +1529,14 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>46</v>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,14 +1546,14 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>46</v>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,14 +1563,14 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>46</v>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,14 +1580,14 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>46</v>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,14 +1597,14 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>46</v>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1610,11 +1619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D39:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,36 +1635,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
+      <c r="A1" s="19">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1665,12 +1674,12 @@
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1680,77 +1689,77 @@
       <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1760,12 +1769,12 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1775,77 +1784,81 @@
       <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="C17" s="28"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18">
+        <f ca="1">+B18:F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="B19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1855,12 +1868,12 @@
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1870,77 +1883,77 @@
       <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="25" t="s">
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="26" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="28" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
         <v>4</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="B28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1950,12 +1963,12 @@
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
@@ -1965,45 +1978,45 @@
       <c r="D32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>41</v>
+      <c r="E32" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="45" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2038,14 +2051,14 @@
     <mergeCell ref="B1:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="C14" r:id="rId3" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
-    <hyperlink ref="C23" r:id="rId4" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
-    <hyperlink ref="C32" r:id="rId5" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E23" r:id="rId7"/>
-    <hyperlink ref="E32" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C23" r:id="rId4" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C32" r:id="rId5" display="https://anatoliitymoshchuk.atlassian.net/secure/ViewProfile.jspa?name=admin" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E32" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
